--- a/billion_pixel_project_wbs.xlsx
+++ b/billion_pixel_project_wbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Research/billion pixel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A99826C-93D2-214C-9AD8-F4D07C9CB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD5345-8E21-9F4D-8536-C677A74D0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{B577BED1-4FB8-944A-9FF6-A8403FB93A28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>最終更新日：</t>
     <rPh sb="0" eb="5">
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>データ整理をした結果，これから何をするかをまた決める</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Done</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,6 +563,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,36 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471187-D1FA-554E-A54F-6768FC1AC6FC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -929,15 +933,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -969,7 +973,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -982,13 +986,15 @@
         <f>D5+1</f>
         <v>44432</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="13"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1003,22 +1009,22 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>44431</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>44432</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1035,7 +1041,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="13"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1050,41 +1056,41 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>44432</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <f t="shared" si="2"/>
         <v>44433</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>44433</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <f t="shared" si="2"/>
         <v>44434</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="13"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1099,22 +1105,22 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="21">
         <v>44433</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="21">
         <f t="shared" si="3"/>
         <v>44434</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1122,7 +1128,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="17"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>

--- a/billion_pixel_project_wbs.xlsx
+++ b/billion_pixel_project_wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD5345-8E21-9F4D-8536-C677A74D0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92611590-AE16-B445-9201-C57B523632AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{B577BED1-4FB8-944A-9FF6-A8403FB93A28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>最終更新日：</t>
     <rPh sb="0" eb="5">
@@ -922,7 +922,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1005,7 +1005,9 @@
         <f t="shared" ref="E6:E7" si="0">D6+1</f>
         <v>44432</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1">
@@ -1020,7 +1022,9 @@
         <f t="shared" si="0"/>
         <v>44432</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7">

--- a/billion_pixel_project_wbs.xlsx
+++ b/billion_pixel_project_wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92611590-AE16-B445-9201-C57B523632AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A65D739-87A8-F947-B098-F760916C0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{B577BED1-4FB8-944A-9FF6-A8403FB93A28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>最終更新日：</t>
     <rPh sb="0" eb="5">
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471187-D1FA-554E-A54F-6768FC1AC6FC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1041,7 +1041,9 @@
         <f t="shared" ref="E8" si="1">D8+1</f>
         <v>44433</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">

--- a/billion_pixel_project_wbs.xlsx
+++ b/billion_pixel_project_wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A65D739-87A8-F947-B098-F760916C0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6F093-185B-C54B-9E6D-8E6FA5D340E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{B577BED1-4FB8-944A-9FF6-A8403FB93A28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>最終更新日：</t>
     <rPh sb="0" eb="5">
@@ -212,6 +212,89 @@
   </si>
   <si>
     <t>Done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再SfM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の解像度を落として保存する処理の開発</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オトセィ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾンスル</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度を落とした画像によるSfM1</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度を落とした画像によるSfM2</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度を落とした画像によるSfM3</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度を落としたmannen1とmannen2を合わせたSfM</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度を落としたSfM結果をまとめて，分析</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリジナルのmannen1とmannen2を合わせたSfM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -219,6 +302,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -253,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -502,6 +588,71 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -511,10 +662,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -526,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,12 +716,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -585,12 +732,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -604,6 +745,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471187-D1FA-554E-A54F-6768FC1AC6FC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -933,22 +1110,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>20210823</v>
+      <c r="B2" s="32">
+        <v>44434</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" thickBot="1"/>
@@ -973,7 +1150,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -994,7 +1171,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="23"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1011,24 +1188,24 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>44431</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>44432</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1047,7 +1224,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="23"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1058,45 +1235,51 @@
         <f t="shared" ref="E9:E11" si="2">D9+1</f>
         <v>44433</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>44432</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <f t="shared" si="2"/>
         <v>44433</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>44433</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <f t="shared" si="2"/>
         <v>44434</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="23"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1104,90 +1287,118 @@
         <v>44433</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12:E13" si="3">D12+1</f>
+        <f t="shared" ref="D12:E14" si="3">D12+1</f>
         <v>44434</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="24">
         <v>44433</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="24">
         <f t="shared" si="3"/>
         <v>44434</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" thickBot="1">
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="33">
+        <v>44434</v>
+      </c>
+      <c r="E14" s="33">
+        <v>44434</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="33">
+        <v>44435</v>
+      </c>
+      <c r="E15" s="11">
+        <v>44435</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="2:7" ht="21" thickBot="1">
+      <c r="B20" s="20"/>
+      <c r="C20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="9"/>
@@ -1246,11 +1457,12 @@
       <c r="G28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/billion_pixel_project_wbs.xlsx
+++ b/billion_pixel_project_wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6F093-185B-C54B-9E6D-8E6FA5D340E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339D6D2-3F41-6D41-93FF-AB4057082B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{B577BED1-4FB8-944A-9FF6-A8403FB93A28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>最終更新日：</t>
     <rPh sb="0" eb="5">
@@ -295,6 +295,40 @@
   </si>
   <si>
     <t>オリジナルのmannen1とmannen2を合わせたSfM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一端の結論</t>
+    <rPh sb="0" eb="2">
+      <t>イッタn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全データをまとめて，何ができて何ができなかったかを再分析</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンデ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できなかったことの理由を解析</t>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとまずの結論をエクセルにまとめて終了</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -303,7 +337,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -339,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -673,13 +707,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +779,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -745,39 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1098,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471187-D1FA-554E-A54F-6768FC1AC6FC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="131" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1110,21 +1166,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="28">
         <v>44434</v>
       </c>
     </row>
@@ -1150,7 +1206,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1171,7 +1227,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="19"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1244,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1">
-      <c r="B7" s="20"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1261,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1224,7 +1280,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="19"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1297,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="B10" s="20"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1314,7 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1279,7 +1335,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="19"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1287,7 +1343,7 @@
         <v>44433</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="D12:E14" si="3">D12+1</f>
+        <f t="shared" ref="E12:E13" si="3">D12+1</f>
         <v>44434</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1296,133 +1352,181 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="20">
         <v>44433</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <f t="shared" si="3"/>
         <v>44434</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" thickBot="1">
-      <c r="B14" s="18" t="s">
+      <c r="F13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="33">
-        <v>44434</v>
-      </c>
-      <c r="E14" s="33">
-        <v>44434</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="28"/>
+      <c r="D14" s="29">
+        <v>44434</v>
+      </c>
+      <c r="E14" s="29">
+        <v>44434</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="19"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="33">
-        <v>44435</v>
+      <c r="D15" s="11">
+        <v>44434</v>
       </c>
       <c r="E15" s="11">
-        <v>44435</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="29"/>
+        <v>44434</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="19"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="29"/>
+      <c r="D16" s="11">
+        <v>44434</v>
+      </c>
+      <c r="E16" s="11">
+        <v>44434</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="19"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="29"/>
+      <c r="D17" s="11">
+        <v>44434</v>
+      </c>
+      <c r="E17" s="11">
+        <v>44434</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="19"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="29"/>
+      <c r="D18" s="11">
+        <v>44434</v>
+      </c>
+      <c r="E18" s="11">
+        <v>44434</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="19"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="29"/>
+      <c r="D19" s="30">
+        <v>44434</v>
+      </c>
+      <c r="E19" s="30">
+        <v>44434</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7" ht="21" thickBot="1">
-      <c r="B20" s="20"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="31">
+        <v>44434</v>
+      </c>
+      <c r="E20" s="31">
+        <v>44435</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="27"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="36">
+        <v>44435</v>
+      </c>
+      <c r="E21" s="36">
+        <v>44435</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="2:7" ht="21" thickBot="1">
+      <c r="B23" s="34"/>
+      <c r="C23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="9"/>
@@ -1457,7 +1561,8 @@
       <c r="G28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B8:B10"/>

--- a/billion_pixel_project_wbs.xlsx
+++ b/billion_pixel_project_wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339D6D2-3F41-6D41-93FF-AB4057082B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766155EE-1E21-CB40-83B8-BB01A1EE0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{B577BED1-4FB8-944A-9FF6-A8403FB93A28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>最終更新日：</t>
     <rPh sb="0" eb="5">
@@ -329,6 +329,73 @@
   </si>
   <si>
     <t>ひとまずの結論をエクセルにまとめて終了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに解像度を落とした画像を用いたSfM1</t>
+    <rPh sb="3" eb="6">
+      <t>カイゾウドヲオテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに解像度を落とした画像を用いたSfM2</t>
+    <rPh sb="3" eb="6">
+      <t>カイゾウドヲオテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに解像度を落とした画像を用いたSfM3</t>
+    <rPh sb="3" eb="6">
+      <t>カイゾウドヲオテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに解像度を落とした画像を用いたSfM4</t>
+    <rPh sb="3" eb="6">
+      <t>カイゾウドヲオテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再々SfM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点群ができたのに位置姿勢推定がうまくいかないのは樽型歪み？</t>
+    <rPh sb="0" eb="2">
+      <t>テングn</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イチス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タルガ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒズミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -519,23 +586,101 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -544,7 +689,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -553,39 +698,50 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -593,131 +749,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -726,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,73 +789,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -835,7 +864,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471187-D1FA-554E-A54F-6768FC1AC6FC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1166,21 +1198,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="25">
         <v>44434</v>
       </c>
     </row>
@@ -1206,7 +1238,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1227,7 +1259,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="33"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1238,30 +1270,30 @@
         <f t="shared" ref="E6:E7" si="0">D6+1</f>
         <v>44432</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>44431</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>44432</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1280,7 +1312,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="33"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1297,45 +1329,45 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>44432</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f t="shared" si="2"/>
         <v>44433</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>44433</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <f t="shared" si="2"/>
         <v>44434</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="33"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1352,216 +1384,231 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>44433</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <f t="shared" si="3"/>
         <v>44434</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <v>44434</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="26">
         <v>44434</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="33"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>44434</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>44434</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="33"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>44434</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>44434</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>44434</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>44434</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>44434</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>44434</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="33"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="27">
         <v>44434</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="27">
         <v>44434</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="21" thickBot="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <v>44434</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <v>44435</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="29">
         <v>44435</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="29">
         <v>44435</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="33"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="2:7" ht="21" thickBot="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="27"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="23"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" ht="21" thickBot="1">
+      <c r="B27" s="32"/>
+      <c r="C27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7" ht="21" thickBot="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="B28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A1:G1"/>
